--- a/biology/Mycologie/Lasallia_pustulata/Lasallia_pustulata.xlsx
+++ b/biology/Mycologie/Lasallia_pustulata/Lasallia_pustulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lichen à pustules
 Lasallia pustulata est une espèce de champignons lichénisés (lichen) du genre Lasallia.
@@ -514,14 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thalle
-Le thalle foliacé et ombiliqué (attaché par un crampon central unique, l'ombilic), de 3-6(15) cm de diamètre, est gris-brun à brun noirâtre par temps sec, vert-olive quand il a plu. Sa face supérieure est couverte de pustules convexes et de bouquets d’isidies coralloïdes brun-noir, la partie centrale étant recouverte d’une pruine blanche[4].
-Reproduction
-La reproduction sexuée est assurée par de très rares apothécies lisses et noires, de 1-3 mm de diamètre[4].
-Les pustules correspondant à des propagules : la migration de ces pustules du centre à la périphérie donne naissance à des isidies marginales qui assurent la reproduction végétative du thalle[5].
-Écologie
-Cette espèce saxicole calcifuge est commune sur des roches enrichies en nutriments (nitrates ou sels minéraux)[6].
-Les pluies déclenchent une réhydratation très rapide de L. pustulata (faculté de reviviscence) : ses bords recourbés vers le haut s'étalent et la face supérieure du thalle vire vers une teinte brun verdâtre, couleur qui traduit la reprise d’activité photosynthétisante des algues vertes microscopiques du genre Pseudotrebouxia[7].
+          <t>Thalle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thalle foliacé et ombiliqué (attaché par un crampon central unique, l'ombilic), de 3-6(15) cm de diamètre, est gris-brun à brun noirâtre par temps sec, vert-olive quand il a plu. Sa face supérieure est couverte de pustules convexes et de bouquets d’isidies coralloïdes brun-noir, la partie centrale étant recouverte d’une pruine blanche.
 </t>
         </is>
       </c>
@@ -547,13 +558,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Intérêts</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le thalle entier est utilisé pour ses propriétés tinctoriales[8].
-En raison de sa comestibilité[réf. souhaitée] et de ses marges ondulées, cette espèce a reçu le nom de « tripe de roche », appellation également de diverses espèces proches du genre Umbilicaria[9].
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reproduction sexuée est assurée par de très rares apothécies lisses et noires, de 1-3 mm de diamètre.
+Les pustules correspondant à des propagules : la migration de ces pustules du centre à la périphérie donne naissance à des isidies marginales qui assurent la reproduction végétative du thalle.
 </t>
         </is>
       </c>
@@ -579,12 +596,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce saxicole calcifuge est commune sur des roches enrichies en nutriments (nitrates ou sels minéraux).
+Les pluies déclenchent une réhydratation très rapide de L. pustulata (faculté de reviviscence) : ses bords recourbés vers le haut s'étalent et la face supérieure du thalle vire vers une teinte brun verdâtre, couleur qui traduit la reprise d’activité photosynthétisante des algues vertes microscopiques du genre Pseudotrebouxia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lasallia_pustulata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lasallia_pustulata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Intérêts</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thalle entier est utilisé pour ses propriétés tinctoriales.
+En raison de sa comestibilité[réf. souhaitée] et de ses marges ondulées, cette espèce a reçu le nom de « tripe de roche », appellation également de diverses espèces proches du genre Umbilicaria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lasallia_pustulata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lasallia_pustulata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a reçu comme synonymes[10] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette espèce a reçu comme synonymes :
 Umbilicaria pustulata
 Lecidea pustulata
 Capnia pustulata
